--- a/Config/Datas/Game/Numeric.xlsx
+++ b/Config/Datas/Game/Numeric.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MonkeyKing\Config\Datas\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D16BF-75F8-4A2C-B75F-57D96C1A2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>##</t>
   </si>
@@ -137,10 +138,6 @@
   </si>
   <si>
     <t>最大魔法值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -297,11 +294,15 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,11 +470,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,12 +750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,13 +797,13 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -872,23 +873,17 @@
         <v>19</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>27</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I4" s="17"/>
       <c r="J4" s="14">
-        <v>1001</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
@@ -899,19 +894,19 @@
       <c r="F5" s="15"/>
       <c r="G5" s="14"/>
       <c r="H5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="14">
-        <v>1002</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>28</v>
+        <v>1001</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -923,19 +918,19 @@
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
       <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="J6" s="14">
-        <v>1003</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>29</v>
+        <v>1002</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -947,19 +942,19 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="J7" s="14">
-        <v>1004</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>30</v>
+        <v>1003</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -971,19 +966,19 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
       <c r="H8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="14">
-        <v>1005</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>31</v>
+        <v>1004</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -995,19 +990,19 @@
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
       <c r="H9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="J9" s="14">
-        <v>1006</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>32</v>
+        <v>1005</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1019,19 +1014,19 @@
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
       <c r="H10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="J10" s="14">
-        <v>1007</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>33</v>
+        <v>1006</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1042,11 +1037,21 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1007</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>

--- a/Config/Datas/Game/Numeric.xlsx
+++ b/Config/Datas/Game/Numeric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D16BF-75F8-4A2C-B75F-57D96C1A2CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4B5991-4812-4CDA-8EC2-2FAD09013117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
   </si>
   <si>
     <t>MP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAxMP</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -298,12 +294,16 @@
     <t>None</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>MaxMP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +322,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -337,20 +338,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -361,10 +350,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -755,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,10 +869,10 @@
         <v>19</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="14">
@@ -897,16 +893,16 @@
         <v>20</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="14">
         <v>1001</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -921,16 +917,16 @@
         <v>21</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="14">
         <v>1002</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -945,16 +941,16 @@
         <v>22</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="14">
         <v>1003</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -969,16 +965,16 @@
         <v>23</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="14">
         <v>1004</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -993,16 +989,16 @@
         <v>24</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="14">
         <v>1005</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1017,16 +1013,16 @@
         <v>25</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" s="14">
         <v>1006</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1038,19 +1034,19 @@
       <c r="F11" s="15"/>
       <c r="G11" s="14"/>
       <c r="H11" s="13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="14">
         <v>1007</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">

--- a/Config/Datas/Game/Numeric.xlsx
+++ b/Config/Datas/Game/Numeric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4B5991-4812-4CDA-8EC2-2FAD09013117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7AB84-8C8C-41E3-BF18-510FD83C209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>##</t>
   </si>
@@ -298,12 +298,37 @@
     <t>MaxMP</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>MagicEnhance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术强度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>str=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术强度</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +389,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -414,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +787,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1057,11 +1093,21 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
+      <c r="H12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1008</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
